--- a/MainForm/VhodControl/bin/Debug/net8.0-windows/output.xlsx
+++ b/MainForm/VhodControl/bin/Debug/net8.0-windows/output.xlsx
@@ -424,304 +424,280 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Дата и время заказа</t>
+          <t>order_id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Количество заказанных булочек</t>
+          <t>bun_id</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Название булочки</t>
+          <t>category_name</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Цена булочки</t>
+          <t>ingredient_name</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Название ингредиента</t>
+          <t>ingredient_quantity</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
+      <c r="A2" t="n">
+        <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Круассан</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>Солёные</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Мука</t>
         </is>
       </c>
+      <c r="E2" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Круассан</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Сахар</t>
-        </is>
+          <t>Сладкие</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
+      <c r="A4" t="n">
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Круассан</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Соль</t>
-        </is>
+          <t>Диетические</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Яйцо</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Багет</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>Сладкие</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Мука</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
+      <c r="A6" t="n">
+        <v>11</v>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Диетические</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Мука</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Сладкие</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Сахар</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Солёные</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Соль</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Солёные</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Киевское молоко</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Багет</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Соль</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Багет</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Сладкие</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Сахар</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Сладкие</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Мука</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Солёные</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Дрожжи</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Макарон</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Солёные</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Мука</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Макарон</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Сахар</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Сэндвич</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Мука</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Сэндвич</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Киевское молоко</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Диетическая булочка</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Мука</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-02-16T21:08:45.743693</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Диетическая булочка</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Яйцо</t>
-        </is>
+      <c r="E13" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
